--- a/biology/Zoologie/Chindongo_demasoni/Chindongo_demasoni.xlsx
+++ b/biology/Zoologie/Chindongo_demasoni/Chindongo_demasoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chindongo demasoni est une espèce est-africaine de poisson de la famille des cichlidé, originaire du lac Malawi.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie des M'bunas, cichlidés du lac Malawi (espèce endémique). Facile à reconnaître grâce à sa couleur bleu électrique et ses lignes verticales de couleur noir. Il mesure à taille adulte de 6 à 8 cm. Le mâle est généralement un peu plus grand et plus foncé que la femelle (seul dichromatisme sexuel). 
 Son comportement est très agressif et très territorial.
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle est apte à la reproduction dès qu'elle atteint la taille de 5 cm. Les œufs sont pondus et fécondés sur le sol. Ils sont ensuite récupérés par la femelle dans sa cavité buccale (incubation buccale). 
 </t>
